--- a/DokkanKits/35.xlsx
+++ b/DokkanKits/35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB34416-FE13-4275-B1A5-A703837BF9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E04E2DE-C6CE-4A29-9BFB-0DB73689BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="210" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="638" windowWidth="11414" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -849,11 +849,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>2</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="B6">
             <v>3.5</v>
@@ -1301,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
